--- a/net/lav/4786-wandhofen.xlsx
+++ b/net/lav/4786-wandhofen.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD6DA93-D8D8-46C4-9B71-4854D8972CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B46773-E4C2-43F4-B531-FFC4EF501D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17" yWindow="420" windowWidth="32674" windowHeight="17494" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="32674" windowHeight="17494" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rechnung goniom. Koord." sheetId="1" r:id="rId1"/>
     <sheet name="Hinweise" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="68">
   <si>
     <t>Berechnung goniometrische Coordinate</t>
   </si>
@@ -748,9 +748,9 @@
   <dimension ref="A1:AE76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="V31" sqref="V31"/>
+      <selection pane="bottomLeft" activeCell="AD28" sqref="AD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -1308,6 +1308,9 @@
       </c>
       <c r="AB27">
         <v>1470.17</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>18</v>
       </c>
       <c r="AE27">
         <v>2588.4699999999998</v>
